--- a/Documents/帶調字符表.xlsx
+++ b/Documents/帶調字符表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9338CFB9-3CBB-4144-BCDA-CC52E661BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1C431-F3CD-450E-8861-2BBCD5F9406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2025" windowWidth="33300" windowHeight="12270" xr2:uid="{BA5AB4FF-B054-48DC-9DF0-0EECA4A944F2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA5AB4FF-B054-48DC-9DF0-0EECA4A944F2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>台羅拼音帶調字符表[1]</t>
   </si>
@@ -683,6 +683,13 @@
   </si>
   <si>
     <t>HEX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mūn cheng-hu í chêng-lō͘, hūn sîn-kong chi hi-bî.​</t>
+  </si>
+  <si>
+    <t>ō͘</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE70DC5A-A2E4-418D-8ABB-8C276EDF933C}">
   <dimension ref="A2:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E146" sqref="E21:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -3571,12 +3581,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M</v>
+        <f ca="1" xml:space="preserve"> LEFT(H68,2)</f>
+        <v>M̀</v>
       </c>
       <c r="E68" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"M": ("M", "3"),</v>
+        <v>"M̀": ("M", "3"),</v>
       </c>
       <c r="F68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B68*9, COLUMN($D:$D)))</f>
@@ -3653,12 +3663,12 @@
         <v>5</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M</v>
+        <f ca="1" xml:space="preserve"> LEFT(H70,2)</f>
+        <v>M̂</v>
       </c>
       <c r="E70" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"M": ("M", "5"),</v>
+        <v>"M̂": ("M", "5"),</v>
       </c>
       <c r="F70" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B70*9, COLUMN($D:$D)))</f>
@@ -3694,12 +3704,12 @@
         <v>6</v>
       </c>
       <c r="D71" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M</v>
+        <f ca="1" xml:space="preserve"> LEFT(H71,2)</f>
+        <v>M̌</v>
       </c>
       <c r="E71" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"M": ("M", "6"),</v>
+        <v>"M̌": ("M", "6"),</v>
       </c>
       <c r="F71" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B71*9, COLUMN($D:$D)))</f>
@@ -3735,12 +3745,12 @@
         <v>7</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M</v>
+        <f ca="1" xml:space="preserve"> LEFT(H72,2)</f>
+        <v>M̄</v>
       </c>
       <c r="E72" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"M": ("M", "7"),</v>
+        <v>"M̄": ("M", "7"),</v>
       </c>
       <c r="F72" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B72*9, COLUMN($D:$D)))</f>
@@ -4022,12 +4032,12 @@
         <v>5</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>N</v>
+        <f ca="1" xml:space="preserve"> LEFT(H79,2)</f>
+        <v>N̂</v>
       </c>
       <c r="E79" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"N": ("N", "5"),</v>
+        <v>"N̂": ("N", "5"),</v>
       </c>
       <c r="F79" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B79*9, COLUMN($D:$D)))</f>
@@ -4104,12 +4114,12 @@
         <v>7</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>N</v>
+        <f ca="1" xml:space="preserve"> LEFT(H81,2)</f>
+        <v>N̄</v>
       </c>
       <c r="E81" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"N": ("N", "7"),</v>
+        <v>"N̄": ("N", "7"),</v>
       </c>
       <c r="F81" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F81" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B81*9, COLUMN($D:$D)))</f>
@@ -6154,12 +6164,12 @@
         <v>3</v>
       </c>
       <c r="D131" s="5" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>m</v>
+        <f ca="1" xml:space="preserve"> LEFT(H131,2)</f>
+        <v>m̀</v>
       </c>
       <c r="E131" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"m": ("m", "3"),</v>
+        <v>"m̀": ("m", "3"),</v>
       </c>
       <c r="F131" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F131" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B131*9, COLUMN($D:$D)))</f>
@@ -6236,12 +6246,12 @@
         <v>5</v>
       </c>
       <c r="D133" s="5" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>m</v>
+        <f ca="1" xml:space="preserve"> LEFT(H133,2)</f>
+        <v>m̂</v>
       </c>
       <c r="E133" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"m": ("m", "5"),</v>
+        <v>"m̂": ("m", "5"),</v>
       </c>
       <c r="F133" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B133*9, COLUMN($D:$D)))</f>
@@ -6277,12 +6287,12 @@
         <v>6</v>
       </c>
       <c r="D134" s="5" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>m</v>
+        <f ca="1" xml:space="preserve"> LEFT(H134,2)</f>
+        <v>m̌</v>
       </c>
       <c r="E134" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"m": ("m", "6"),</v>
+        <v>"m̌": ("m", "6"),</v>
       </c>
       <c r="F134" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B134*9, COLUMN($D:$D)))</f>
@@ -6318,12 +6328,12 @@
         <v>7</v>
       </c>
       <c r="D135" s="5" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>m</v>
+        <f ca="1" xml:space="preserve"> LEFT(H135,2)</f>
+        <v>m̄</v>
       </c>
       <c r="E135" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"m": ("m", "7"),</v>
+        <v>"m̄": ("m", "7"),</v>
       </c>
       <c r="F135" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B135*9, COLUMN($D:$D)))</f>
@@ -6605,12 +6615,12 @@
         <v>5</v>
       </c>
       <c r="D142" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>n</v>
+        <f ca="1" xml:space="preserve"> LEFT(H142,2)</f>
+        <v>n̂</v>
       </c>
       <c r="E142" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"n": ("n", "5"),</v>
+        <v>"n̂": ("n", "5"),</v>
       </c>
       <c r="F142" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B142*9, COLUMN($D:$D)))</f>
@@ -6687,12 +6697,12 @@
         <v>7</v>
       </c>
       <c r="D144" s="4" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>n</v>
+        <f ca="1" xml:space="preserve"> LEFT(H144,2)</f>
+        <v>n̄</v>
       </c>
       <c r="E144" s="6" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>"n": ("n", "7"),</v>
+        <v>"n̄": ("n", "7"),</v>
       </c>
       <c r="F144" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($21:$21) + B144*9, COLUMN($D:$D)))</f>
@@ -6806,10 +6816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE21D6C-42DF-494D-A346-039E570FFD2A}">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" x14ac:dyDescent="0.25"/>
@@ -6855,6 +6865,24 @@
         <v>U+00F4</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="8">
+        <f xml:space="preserve"> LEN(B5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f xml:space="preserve"> LEFT(B5)</f>
+        <v>ō</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
